--- a/Project Track sheet.xlsx
+++ b/Project Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -60,7 +60,13 @@
     <t>1:00PM to 3:00PM</t>
   </si>
   <si>
-    <t>Finaling DB Design and Store Procedure work Understanding</t>
+    <t>Finalizing DB Design and Store Procedure work Understanding</t>
+  </si>
+  <si>
+    <t>Updating DB design as per suggessions and Registration &amp; login page</t>
+  </si>
+  <si>
+    <t>Final DB Design &amp; Store Procedure  Descussion, Registration &amp; login page problem discussion</t>
   </si>
 </sst>
 </file>
@@ -405,14 +411,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -540,10 +546,34 @@
       <c r="A8" s="2">
         <v>44144</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>44145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/Project Track sheet.xlsx
+++ b/Project Track sheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBDesign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckList" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>Final DB Design &amp; Store Procedure  Descussion, Registration &amp; login page problem discussion</t>
+  </si>
+  <si>
+    <t>CheckList</t>
+  </si>
+  <si>
+    <t>Farmer registration</t>
+  </si>
+  <si>
+    <t>Bidder registration</t>
+  </si>
+  <si>
+    <t>Farmer Crop sell</t>
+  </si>
+  <si>
+    <t>Bidder Bidding</t>
+  </si>
+  <si>
+    <t>Farmer Insurace registration</t>
+  </si>
+  <si>
+    <t>farmer  Insurance claim</t>
+  </si>
+  <si>
+    <t>Admin Approvals</t>
+  </si>
+  <si>
+    <t>Forgot Password Email Send</t>
+  </si>
+  <si>
+    <t>Market Place</t>
+  </si>
+  <si>
+    <t>Sold history</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -409,9 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,12 +633,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project Track sheet.xlsx
+++ b/Project Track sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBDesign" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/try-samples/tree/master/101-linq-samples</t>
+  </si>
+  <si>
+    <t>https://linqsamples.com/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/samples/dotnet/try-samples/101-linq-samples/</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -715,12 +724,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>